--- a/QCAuto/bin/Debug/antaxtep 调拨/antaxtep/库存数据.xlsx
+++ b/QCAuto/bin/Debug/antaxtep 调拨/antaxtep/库存数据.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Devlop\报价单\ewm\Excel_baojiadan\QCAuto\bin\Debug\antaxtep 调拨\antaxtep\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\yhltd112\Excel_baojiadan\QCAuto\bin\Debug\antaxtep 调拨\antaxtep\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -1241,7 +1241,7 @@
   <dimension ref="A1:L798"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20:B22"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1308,7 +1308,7 @@
         <v>15</v>
       </c>
       <c r="G2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2" s="1" t="s">
         <v>16</v>
@@ -31577,5 +31577,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>